--- a/Data/Call/Call_CCX.xlsx
+++ b/Data/Call/Call_CCX.xlsx
@@ -82,6 +82,9 @@
     <t>CCX26</t>
   </si>
   <si>
+    <t>CCX27</t>
+  </si>
+  <si>
     <t>CCX31</t>
   </si>
   <si>
@@ -107,9 +110,6 @@
   </si>
   <si>
     <t>CCX45</t>
-  </si>
-  <si>
-    <t>CCX46</t>
   </si>
   <si>
     <t>CCX51</t>
@@ -546,31 +546,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -578,31 +578,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -613,28 +613,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -642,31 +642,31 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
       <c r="D5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>12</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5">
         <v>14</v>
       </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
       <c r="J5">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -674,31 +674,31 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
         <v>8</v>
       </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
       <c r="H6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -709,28 +709,28 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H7">
         <v>13</v>
       </c>
       <c r="I7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -738,31 +738,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <v>4</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -770,25 +770,25 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -802,19 +802,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -834,25 +834,25 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
         <v>8</v>
-      </c>
-      <c r="H11">
-        <v>9</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -866,28 +866,28 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
         <v>10</v>
       </c>
-      <c r="F12">
-        <v>8</v>
-      </c>
       <c r="G12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12">
         <v>3</v>
@@ -898,22 +898,22 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G13">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H13">
         <v>14</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -930,31 +930,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -965,28 +965,28 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1000,25 +1000,25 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1029,28 +1029,28 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1058,31 +1058,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H18">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1090,31 +1090,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>5</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G19">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H19">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J19">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1122,31 +1122,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G20">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1154,22 +1154,22 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G21">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H21">
         <v>5</v>
@@ -1186,31 +1186,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G22">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1218,31 +1218,31 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1250,31 +1250,31 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1282,31 +1282,31 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1314,7 +1314,7 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -1323,22 +1323,22 @@
         <v>3</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J26">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1349,28 +1349,28 @@
         <v>7</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>4</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1387,13 +1387,13 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1410,31 +1410,31 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G29">
         <v>5</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1442,31 +1442,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G30">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J30">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1474,31 +1474,31 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F31">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G31">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H31">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1506,28 +1506,28 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1538,31 +1538,31 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F33">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G33">
         <v>13</v>
       </c>
       <c r="H33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1570,31 +1570,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I34">
         <v>2</v>
       </c>
       <c r="J34">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1602,25 +1602,25 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C35">
         <v>15</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I35">
         <v>0</v>

--- a/Data/Call/Call_CCX.xlsx
+++ b/Data/Call/Call_CCX.xlsx
@@ -14,36 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>FFTR</t>
   </si>
   <si>
-    <t>LIGAZID Call</t>
-  </si>
-  <si>
-    <t>EMAZID Call</t>
-  </si>
-  <si>
-    <t>LIPICON Call</t>
-  </si>
-  <si>
-    <t>AGLIP Call</t>
-  </si>
-  <si>
-    <t>CIFIBET Call</t>
-  </si>
-  <si>
-    <t>AMLEVO Call</t>
-  </si>
-  <si>
-    <t>CARDOBIS Call</t>
-  </si>
-  <si>
-    <t>RIVAROX Call</t>
-  </si>
-  <si>
-    <t>Noclog Call</t>
+    <t>LIGAZID</t>
+  </si>
+  <si>
+    <t>EMAZID</t>
+  </si>
+  <si>
+    <t>LIPICON</t>
+  </si>
+  <si>
+    <t>AGLIP</t>
+  </si>
+  <si>
+    <t>CIFIBET</t>
+  </si>
+  <si>
+    <t>AMLEVO</t>
+  </si>
+  <si>
+    <t>CARDOBIS</t>
+  </si>
+  <si>
+    <t>RIVAROX</t>
+  </si>
+  <si>
+    <t>NOCLOG</t>
+  </si>
+  <si>
+    <t>CCX</t>
+  </si>
+  <si>
+    <t>CCX10</t>
   </si>
   <si>
     <t>CCX11</t>
@@ -58,12 +64,18 @@
     <t>CCX14</t>
   </si>
   <si>
+    <t>CCX15</t>
+  </si>
+  <si>
     <t>CCX16</t>
   </si>
   <si>
     <t>CCX17</t>
   </si>
   <si>
+    <t>CCX20</t>
+  </si>
+  <si>
     <t>CCX21</t>
   </si>
   <si>
@@ -85,6 +97,9 @@
     <t>CCX27</t>
   </si>
   <si>
+    <t>CCX30</t>
+  </si>
+  <si>
     <t>CCX31</t>
   </si>
   <si>
@@ -97,6 +112,12 @@
     <t>CCX34</t>
   </si>
   <si>
+    <t>CCX35</t>
+  </si>
+  <si>
+    <t>CCX40</t>
+  </si>
+  <si>
     <t>CCX41</t>
   </si>
   <si>
@@ -112,6 +133,12 @@
     <t>CCX45</t>
   </si>
   <si>
+    <t>CCX46</t>
+  </si>
+  <si>
+    <t>CCX50</t>
+  </si>
+  <si>
     <t>CCX51</t>
   </si>
   <si>
@@ -131,6 +158,12 @@
   </si>
   <si>
     <t>CCX57</t>
+  </si>
+  <si>
+    <t>CCX58</t>
+  </si>
+  <si>
+    <t>CCX60</t>
   </si>
   <si>
     <t>CCX61</t>
@@ -503,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,31 +579,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C2">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>26</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>31</v>
+      </c>
+      <c r="H2">
+        <v>26</v>
+      </c>
+      <c r="I2">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
       <c r="J2">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -581,28 +614,28 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>6</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I3">
         <v>3</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -613,28 +646,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -642,31 +675,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -674,31 +707,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -706,31 +739,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -738,31 +771,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -770,31 +803,31 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
         <v>4</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>5</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>12</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -802,31 +835,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -834,7 +867,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -843,22 +876,22 @@
         <v>2</v>
       </c>
       <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
         <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
       </c>
       <c r="G11">
         <v>5</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -866,31 +899,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -898,31 +931,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -936,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -945,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -962,31 +995,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -994,31 +1027,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1026,31 +1059,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1058,28 +1091,28 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1090,31 +1123,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
         <v>3</v>
       </c>
-      <c r="D19">
-        <v>16</v>
-      </c>
-      <c r="E19">
-        <v>5</v>
-      </c>
       <c r="F19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G19">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H19">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1122,31 +1155,31 @@
         <v>28</v>
       </c>
       <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
         <v>5</v>
       </c>
-      <c r="C20">
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
         <v>9</v>
       </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20">
-        <v>8</v>
-      </c>
-      <c r="F20">
-        <v>10</v>
-      </c>
-      <c r="G20">
-        <v>13</v>
-      </c>
-      <c r="H20">
-        <v>7</v>
-      </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1160,22 +1193,22 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1186,31 +1219,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1218,31 +1251,31 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1250,31 +1283,31 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1282,31 +1315,31 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>12</v>
+      </c>
+      <c r="F25">
         <v>7</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
       </c>
       <c r="G25">
         <v>12</v>
       </c>
       <c r="H25">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1314,31 +1347,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1346,25 +1379,25 @@
         <v>35</v>
       </c>
       <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
         <v>7</v>
       </c>
-      <c r="C27">
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
         <v>2</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>5</v>
-      </c>
-      <c r="G27">
-        <v>4</v>
-      </c>
-      <c r="H27">
-        <v>5</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1378,31 +1411,31 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1410,31 +1443,31 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1442,31 +1475,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1474,31 +1507,31 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1506,25 +1539,25 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1538,31 +1571,31 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1570,31 +1603,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1602,31 +1635,383 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
         <v>2</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
         <v>1</v>
       </c>
-      <c r="H35">
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
         <v>4</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>20</v>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Call/Call_CCX.xlsx
+++ b/Data/Call/Call_CCX.xlsx
@@ -579,31 +579,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="G2">
-        <v>31</v>
+        <v>259</v>
       </c>
       <c r="H2">
-        <v>26</v>
+        <v>228</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J2">
-        <v>19</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -611,31 +611,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -643,31 +643,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -675,31 +675,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -710,19 +710,19 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -739,31 +739,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -803,16 +803,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -821,13 +821,13 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I9">
         <v>3</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -835,31 +835,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -867,31 +867,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -899,31 +899,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -931,28 +931,28 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -963,31 +963,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -995,31 +995,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1027,31 +1027,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1059,31 +1059,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1091,22 +1091,22 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1123,31 +1123,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H19">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J19">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1155,31 +1155,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1219,31 +1219,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1251,31 +1251,31 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1283,25 +1283,25 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1315,31 +1315,31 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E25">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F25">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="G25">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1347,31 +1347,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1379,31 +1379,31 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1411,7 +1411,7 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G29">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1475,13 +1475,13 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1490,10 +1490,10 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1539,31 +1539,31 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1571,31 +1571,31 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1603,31 +1603,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1635,31 +1635,31 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1667,31 +1667,31 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1705,25 +1705,25 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1763,31 +1763,31 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1795,31 +1795,31 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1827,31 +1827,31 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J41">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1891,25 +1891,25 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -1955,31 +1955,31 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I45">
         <v>2</v>
       </c>
       <c r="J45">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1987,31 +1987,31 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J46">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
